--- a/Data.xlsx
+++ b/Data.xlsx
@@ -8,13 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\verno\Documents\Current Classes\5342MatisDoE\Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B81B4FB-20CD-4636-A31E-5273E3B57B9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D1D6382-E0D1-4BA8-99DC-D98DEFB2875C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="492" windowWidth="23256" windowHeight="12576" xr2:uid="{17339BA6-4660-4429-9A68-955AD5F068E4}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="5">
   <si>
     <t>Tennis</t>
   </si>
@@ -51,12 +50,6 @@
   <si>
     <t>Distance</t>
   </si>
-  <si>
-    <t>pinsetting</t>
-  </si>
-  <si>
-    <t>angle</t>
-  </si>
 </sst>
 </file>
 
@@ -71,21 +64,15 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -93,38 +80,18 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -777,7 +744,7 @@
       <c r="A41" s="1">
         <v>70</v>
       </c>
-      <c r="B41" s="3" t="s">
+      <c r="B41" s="2" t="s">
         <v>1</v>
       </c>
     </row>
@@ -785,7 +752,7 @@
       <c r="A42" s="1">
         <v>122</v>
       </c>
-      <c r="B42" s="3" t="s">
+      <c r="B42" s="2" t="s">
         <v>1</v>
       </c>
     </row>
@@ -793,7 +760,7 @@
       <c r="A43" s="1">
         <v>61</v>
       </c>
-      <c r="B43" s="3" t="s">
+      <c r="B43" s="2" t="s">
         <v>0</v>
       </c>
     </row>
@@ -801,7 +768,7 @@
       <c r="A44" s="1">
         <v>57</v>
       </c>
-      <c r="B44" s="3" t="s">
+      <c r="B44" s="2" t="s">
         <v>0</v>
       </c>
     </row>
@@ -809,7 +776,7 @@
       <c r="A45" s="1">
         <v>60</v>
       </c>
-      <c r="B45" s="3" t="s">
+      <c r="B45" s="2" t="s">
         <v>1</v>
       </c>
     </row>
@@ -817,7 +784,7 @@
       <c r="A46" s="1">
         <v>124</v>
       </c>
-      <c r="B46" s="3" t="s">
+      <c r="B46" s="2" t="s">
         <v>1</v>
       </c>
     </row>
@@ -825,7 +792,7 @@
       <c r="A47" s="1">
         <v>68</v>
       </c>
-      <c r="B47" s="3" t="s">
+      <c r="B47" s="2" t="s">
         <v>0</v>
       </c>
     </row>
@@ -833,7 +800,7 @@
       <c r="A48" s="1">
         <v>109</v>
       </c>
-      <c r="B48" s="3" t="s">
+      <c r="B48" s="2" t="s">
         <v>2</v>
       </c>
     </row>
@@ -841,7 +808,7 @@
       <c r="A49" s="1">
         <v>67</v>
       </c>
-      <c r="B49" s="3" t="s">
+      <c r="B49" s="2" t="s">
         <v>0</v>
       </c>
     </row>
@@ -849,7 +816,7 @@
       <c r="A50" s="1">
         <v>77</v>
       </c>
-      <c r="B50" s="3" t="s">
+      <c r="B50" s="2" t="s">
         <v>0</v>
       </c>
     </row>
@@ -857,7 +824,7 @@
       <c r="A51" s="1">
         <v>72</v>
       </c>
-      <c r="B51" s="3" t="s">
+      <c r="B51" s="2" t="s">
         <v>0</v>
       </c>
     </row>
@@ -865,7 +832,7 @@
       <c r="A52" s="1">
         <v>87</v>
       </c>
-      <c r="B52" s="3" t="s">
+      <c r="B52" s="2" t="s">
         <v>1</v>
       </c>
     </row>
@@ -873,7 +840,7 @@
       <c r="A53" s="1">
         <v>109</v>
       </c>
-      <c r="B53" s="3" t="s">
+      <c r="B53" s="2" t="s">
         <v>1</v>
       </c>
     </row>
@@ -881,7 +848,7 @@
       <c r="A54" s="1">
         <v>73</v>
       </c>
-      <c r="B54" s="3" t="s">
+      <c r="B54" s="2" t="s">
         <v>1</v>
       </c>
     </row>
@@ -889,7 +856,7 @@
       <c r="A55" s="1">
         <v>102</v>
       </c>
-      <c r="B55" s="3" t="s">
+      <c r="B55" s="2" t="s">
         <v>1</v>
       </c>
     </row>
@@ -897,7 +864,7 @@
       <c r="A56" s="1">
         <v>61</v>
       </c>
-      <c r="B56" s="3" t="s">
+      <c r="B56" s="2" t="s">
         <v>0</v>
       </c>
     </row>
@@ -905,7 +872,7 @@
       <c r="A57" s="1">
         <v>88</v>
       </c>
-      <c r="B57" s="3" t="s">
+      <c r="B57" s="2" t="s">
         <v>2</v>
       </c>
     </row>
@@ -913,7 +880,7 @@
       <c r="A58" s="1">
         <v>92</v>
       </c>
-      <c r="B58" s="3" t="s">
+      <c r="B58" s="2" t="s">
         <v>2</v>
       </c>
     </row>
@@ -921,7 +888,7 @@
       <c r="A59" s="1">
         <v>66</v>
       </c>
-      <c r="B59" s="3" t="s">
+      <c r="B59" s="2" t="s">
         <v>1</v>
       </c>
     </row>
@@ -929,7 +896,7 @@
       <c r="A60" s="1">
         <v>109</v>
       </c>
-      <c r="B60" s="3" t="s">
+      <c r="B60" s="2" t="s">
         <v>1</v>
       </c>
     </row>
@@ -937,7 +904,7 @@
       <c r="A61" s="1">
         <v>61</v>
       </c>
-      <c r="B61" s="3" t="s">
+      <c r="B61" s="2" t="s">
         <v>1</v>
       </c>
     </row>
@@ -945,7 +912,7 @@
       <c r="A62" s="1">
         <v>97</v>
       </c>
-      <c r="B62" s="3" t="s">
+      <c r="B62" s="2" t="s">
         <v>2</v>
       </c>
     </row>
@@ -953,7 +920,7 @@
       <c r="A63" s="1">
         <v>67</v>
       </c>
-      <c r="B63" s="3" t="s">
+      <c r="B63" s="2" t="s">
         <v>0</v>
       </c>
     </row>
@@ -961,7 +928,7 @@
       <c r="A64" s="1">
         <v>97</v>
       </c>
-      <c r="B64" s="3" t="s">
+      <c r="B64" s="2" t="s">
         <v>1</v>
       </c>
     </row>
@@ -969,7 +936,7 @@
       <c r="A65" s="1">
         <v>92</v>
       </c>
-      <c r="B65" s="3" t="s">
+      <c r="B65" s="2" t="s">
         <v>2</v>
       </c>
     </row>
@@ -977,7 +944,7 @@
       <c r="A66" s="1">
         <v>70</v>
       </c>
-      <c r="B66" s="3" t="s">
+      <c r="B66" s="2" t="s">
         <v>0</v>
       </c>
     </row>
@@ -985,7 +952,7 @@
       <c r="A67" s="1">
         <v>77</v>
       </c>
-      <c r="B67" s="3" t="s">
+      <c r="B67" s="2" t="s">
         <v>2</v>
       </c>
     </row>
@@ -993,7 +960,7 @@
       <c r="A68" s="1">
         <v>67</v>
       </c>
-      <c r="B68" s="3" t="s">
+      <c r="B68" s="2" t="s">
         <v>0</v>
       </c>
     </row>
@@ -1001,7 +968,7 @@
       <c r="A69" s="1">
         <v>90</v>
       </c>
-      <c r="B69" s="3" t="s">
+      <c r="B69" s="2" t="s">
         <v>2</v>
       </c>
     </row>
@@ -1009,7 +976,7 @@
       <c r="A70" s="1">
         <v>68</v>
       </c>
-      <c r="B70" s="3" t="s">
+      <c r="B70" s="2" t="s">
         <v>0</v>
       </c>
     </row>
@@ -1017,7 +984,7 @@
       <c r="A71" s="1">
         <v>98</v>
       </c>
-      <c r="B71" s="3" t="s">
+      <c r="B71" s="2" t="s">
         <v>2</v>
       </c>
     </row>
@@ -1025,7 +992,7 @@
       <c r="A72" s="1">
         <v>85</v>
       </c>
-      <c r="B72" s="3" t="s">
+      <c r="B72" s="2" t="s">
         <v>2</v>
       </c>
     </row>
@@ -1033,7 +1000,7 @@
       <c r="A73" s="1">
         <v>67</v>
       </c>
-      <c r="B73" s="3" t="s">
+      <c r="B73" s="2" t="s">
         <v>0</v>
       </c>
     </row>
@@ -1041,7 +1008,7 @@
       <c r="A74" s="1">
         <v>69</v>
       </c>
-      <c r="B74" s="3" t="s">
+      <c r="B74" s="2" t="s">
         <v>0</v>
       </c>
     </row>
@@ -1049,7 +1016,7 @@
       <c r="A75" s="1">
         <v>101</v>
       </c>
-      <c r="B75" s="3" t="s">
+      <c r="B75" s="2" t="s">
         <v>1</v>
       </c>
     </row>
@@ -1057,7 +1024,7 @@
       <c r="A76" s="1">
         <v>95</v>
       </c>
-      <c r="B76" s="3" t="s">
+      <c r="B76" s="2" t="s">
         <v>2</v>
       </c>
     </row>
@@ -1065,7 +1032,7 @@
       <c r="A77" s="1">
         <v>69</v>
       </c>
-      <c r="B77" s="3" t="s">
+      <c r="B77" s="2" t="s">
         <v>0</v>
       </c>
     </row>
@@ -1073,7 +1040,7 @@
       <c r="A78" s="1">
         <v>81</v>
       </c>
-      <c r="B78" s="3" t="s">
+      <c r="B78" s="2" t="s">
         <v>2</v>
       </c>
     </row>
@@ -1081,7 +1048,7 @@
       <c r="A79" s="1">
         <v>79</v>
       </c>
-      <c r="B79" s="3" t="s">
+      <c r="B79" s="2" t="s">
         <v>1</v>
       </c>
     </row>
@@ -1089,7 +1056,7 @@
       <c r="A80" s="1">
         <v>67</v>
       </c>
-      <c r="B80" s="3" t="s">
+      <c r="B80" s="2" t="s">
         <v>0</v>
       </c>
     </row>
@@ -1097,7 +1064,7 @@
       <c r="A81" s="1">
         <v>75</v>
       </c>
-      <c r="B81" s="3" t="s">
+      <c r="B81" s="2" t="s">
         <v>1</v>
       </c>
     </row>
@@ -1105,7 +1072,7 @@
       <c r="A82" s="1">
         <v>61</v>
       </c>
-      <c r="B82" s="3" t="s">
+      <c r="B82" s="2" t="s">
         <v>0</v>
       </c>
     </row>
@@ -1113,7 +1080,7 @@
       <c r="A83" s="1">
         <v>79</v>
       </c>
-      <c r="B83" s="3" t="s">
+      <c r="B83" s="2" t="s">
         <v>1</v>
       </c>
     </row>
@@ -1121,7 +1088,7 @@
       <c r="A84" s="1">
         <v>93</v>
       </c>
-      <c r="B84" s="3" t="s">
+      <c r="B84" s="2" t="s">
         <v>2</v>
       </c>
     </row>
@@ -1129,7 +1096,7 @@
       <c r="A85" s="1">
         <v>94</v>
       </c>
-      <c r="B85" s="3" t="s">
+      <c r="B85" s="2" t="s">
         <v>2</v>
       </c>
     </row>
@@ -1137,7 +1104,7 @@
       <c r="A86" s="1">
         <v>69</v>
       </c>
-      <c r="B86" s="3" t="s">
+      <c r="B86" s="2" t="s">
         <v>1</v>
       </c>
     </row>
@@ -1145,7 +1112,7 @@
       <c r="A87" s="1">
         <v>105</v>
       </c>
-      <c r="B87" s="3" t="s">
+      <c r="B87" s="2" t="s">
         <v>1</v>
       </c>
     </row>
@@ -1153,7 +1120,7 @@
       <c r="A88" s="1">
         <v>83</v>
       </c>
-      <c r="B88" s="3" t="s">
+      <c r="B88" s="2" t="s">
         <v>2</v>
       </c>
     </row>
@@ -1161,7 +1128,7 @@
       <c r="A89" s="1">
         <v>54</v>
       </c>
-      <c r="B89" s="3" t="s">
+      <c r="B89" s="2" t="s">
         <v>1</v>
       </c>
     </row>
@@ -1169,7 +1136,7 @@
       <c r="A90" s="1">
         <v>67</v>
       </c>
-      <c r="B90" s="3" t="s">
+      <c r="B90" s="2" t="s">
         <v>0</v>
       </c>
     </row>
@@ -1177,7 +1144,7 @@
       <c r="A91" s="1">
         <v>68</v>
       </c>
-      <c r="B91" s="3" t="s">
+      <c r="B91" s="2" t="s">
         <v>0</v>
       </c>
     </row>
@@ -1185,7 +1152,7 @@
       <c r="A92" s="1">
         <v>59</v>
       </c>
-      <c r="B92" s="3" t="s">
+      <c r="B92" s="2" t="s">
         <v>1</v>
       </c>
     </row>
@@ -1193,7 +1160,7 @@
       <c r="A93" s="1">
         <v>79</v>
       </c>
-      <c r="B93" s="3" t="s">
+      <c r="B93" s="2" t="s">
         <v>2</v>
       </c>
     </row>
@@ -1201,7 +1168,7 @@
       <c r="A94" s="1">
         <v>60</v>
       </c>
-      <c r="B94" s="3" t="s">
+      <c r="B94" s="2" t="s">
         <v>0</v>
       </c>
     </row>
@@ -1209,7 +1176,7 @@
       <c r="A95" s="1">
         <v>106</v>
       </c>
-      <c r="B95" s="3" t="s">
+      <c r="B95" s="2" t="s">
         <v>2</v>
       </c>
     </row>
@@ -1217,7 +1184,7 @@
       <c r="A96" s="1">
         <v>64</v>
       </c>
-      <c r="B96" s="3" t="s">
+      <c r="B96" s="2" t="s">
         <v>0</v>
       </c>
     </row>
@@ -1225,7 +1192,7 @@
       <c r="A97" s="1">
         <v>97</v>
       </c>
-      <c r="B97" s="3" t="s">
+      <c r="B97" s="2" t="s">
         <v>2</v>
       </c>
     </row>
@@ -1233,7 +1200,7 @@
       <c r="A98" s="1">
         <v>88</v>
       </c>
-      <c r="B98" s="3" t="s">
+      <c r="B98" s="2" t="s">
         <v>2</v>
       </c>
     </row>
@@ -1241,7 +1208,7 @@
       <c r="A99" s="1">
         <v>73</v>
       </c>
-      <c r="B99" s="3" t="s">
+      <c r="B99" s="2" t="s">
         <v>0</v>
       </c>
     </row>
@@ -1249,7 +1216,7 @@
       <c r="A100" s="1">
         <v>86</v>
       </c>
-      <c r="B100" s="3" t="s">
+      <c r="B100" s="2" t="s">
         <v>2</v>
       </c>
     </row>
@@ -1257,7 +1224,7 @@
       <c r="A101" s="1">
         <v>72</v>
       </c>
-      <c r="B101" s="3" t="s">
+      <c r="B101" s="2" t="s">
         <v>0</v>
       </c>
     </row>
@@ -1265,7 +1232,7 @@
       <c r="A102" s="1">
         <v>98</v>
       </c>
-      <c r="B102" s="3" t="s">
+      <c r="B102" s="2" t="s">
         <v>2</v>
       </c>
     </row>
@@ -1273,7 +1240,7 @@
       <c r="A103" s="1">
         <v>92</v>
       </c>
-      <c r="B103" s="3" t="s">
+      <c r="B103" s="2" t="s">
         <v>0</v>
       </c>
     </row>
@@ -1281,7 +1248,7 @@
       <c r="A104" s="1">
         <v>73</v>
       </c>
-      <c r="B104" s="3" t="s">
+      <c r="B104" s="2" t="s">
         <v>1</v>
       </c>
     </row>
@@ -1289,7 +1256,7 @@
       <c r="A105" s="1">
         <v>77</v>
       </c>
-      <c r="B105" s="3" t="s">
+      <c r="B105" s="2" t="s">
         <v>0</v>
       </c>
     </row>
@@ -1297,7 +1264,7 @@
       <c r="A106" s="1">
         <v>94</v>
       </c>
-      <c r="B106" s="3" t="s">
+      <c r="B106" s="2" t="s">
         <v>2</v>
       </c>
     </row>
@@ -1305,7 +1272,7 @@
       <c r="A107" s="1">
         <v>101</v>
       </c>
-      <c r="B107" s="3" t="s">
+      <c r="B107" s="2" t="s">
         <v>2</v>
       </c>
     </row>
@@ -1313,7 +1280,7 @@
       <c r="A108" s="1">
         <v>64</v>
       </c>
-      <c r="B108" s="3" t="s">
+      <c r="B108" s="2" t="s">
         <v>1</v>
       </c>
     </row>
@@ -1321,7 +1288,7 @@
       <c r="A109" s="1">
         <v>88</v>
       </c>
-      <c r="B109" s="3" t="s">
+      <c r="B109" s="2" t="s">
         <v>2</v>
       </c>
     </row>
@@ -1329,7 +1296,7 @@
       <c r="A110" s="1">
         <v>78</v>
       </c>
-      <c r="B110" s="3" t="s">
+      <c r="B110" s="2" t="s">
         <v>0</v>
       </c>
     </row>
@@ -1337,7 +1304,7 @@
       <c r="A111" s="1">
         <v>72</v>
       </c>
-      <c r="B111" s="3" t="s">
+      <c r="B111" s="2" t="s">
         <v>1</v>
       </c>
     </row>
@@ -1345,7 +1312,7 @@
       <c r="A112" s="1">
         <v>67</v>
       </c>
-      <c r="B112" s="3" t="s">
+      <c r="B112" s="2" t="s">
         <v>1</v>
       </c>
     </row>
@@ -1353,7 +1320,7 @@
       <c r="A113" s="1">
         <v>93</v>
       </c>
-      <c r="B113" s="3" t="s">
+      <c r="B113" s="2" t="s">
         <v>2</v>
       </c>
     </row>
@@ -1361,7 +1328,7 @@
       <c r="A114" s="1">
         <v>94</v>
       </c>
-      <c r="B114" s="3" t="s">
+      <c r="B114" s="2" t="s">
         <v>2</v>
       </c>
     </row>
@@ -1369,7 +1336,7 @@
       <c r="A115" s="1">
         <v>73</v>
       </c>
-      <c r="B115" s="3" t="s">
+      <c r="B115" s="2" t="s">
         <v>1</v>
       </c>
     </row>
@@ -1377,7 +1344,7 @@
       <c r="A116" s="1">
         <v>86</v>
       </c>
-      <c r="B116" s="3" t="s">
+      <c r="B116" s="2" t="s">
         <v>2</v>
       </c>
     </row>
@@ -1385,7 +1352,7 @@
       <c r="A117" s="1">
         <v>67</v>
       </c>
-      <c r="B117" s="3" t="s">
+      <c r="B117" s="2" t="s">
         <v>1</v>
       </c>
     </row>
@@ -1393,7 +1360,7 @@
       <c r="A118" s="1">
         <v>65</v>
       </c>
-      <c r="B118" s="3" t="s">
+      <c r="B118" s="2" t="s">
         <v>0</v>
       </c>
     </row>
@@ -1401,7 +1368,7 @@
       <c r="A119" s="1">
         <v>72</v>
       </c>
-      <c r="B119" s="3" t="s">
+      <c r="B119" s="2" t="s">
         <v>0</v>
       </c>
     </row>
@@ -1409,7 +1376,7 @@
       <c r="A120" s="1">
         <v>79</v>
       </c>
-      <c r="B120" s="3" t="s">
+      <c r="B120" s="2" t="s">
         <v>0</v>
       </c>
     </row>
@@ -1417,7 +1384,7 @@
       <c r="A121" s="1">
         <v>65</v>
       </c>
-      <c r="B121" s="3" t="s">
+      <c r="B121" s="2" t="s">
         <v>1</v>
       </c>
     </row>
@@ -1425,7 +1392,7 @@
       <c r="A122" s="1">
         <v>60</v>
       </c>
-      <c r="B122" s="3" t="s">
+      <c r="B122" s="2" t="s">
         <v>1</v>
       </c>
     </row>
@@ -1433,7 +1400,7 @@
       <c r="A123" s="1">
         <v>62</v>
       </c>
-      <c r="B123" s="3" t="s">
+      <c r="B123" s="2" t="s">
         <v>1</v>
       </c>
     </row>
@@ -1441,7 +1408,7 @@
       <c r="A124" s="1">
         <v>119</v>
       </c>
-      <c r="B124" s="3" t="s">
+      <c r="B124" s="2" t="s">
         <v>1</v>
       </c>
     </row>
@@ -1449,7 +1416,7 @@
       <c r="A125" s="1">
         <v>97</v>
       </c>
-      <c r="B125" s="3" t="s">
+      <c r="B125" s="2" t="s">
         <v>1</v>
       </c>
     </row>
@@ -1457,7 +1424,7 @@
       <c r="A126" s="1">
         <v>75</v>
       </c>
-      <c r="B126" s="3" t="s">
+      <c r="B126" s="2" t="s">
         <v>0</v>
       </c>
     </row>
@@ -1465,7 +1432,7 @@
       <c r="A127" s="1">
         <v>72</v>
       </c>
-      <c r="B127" s="3" t="s">
+      <c r="B127" s="2" t="s">
         <v>2</v>
       </c>
     </row>
@@ -1473,7 +1440,7 @@
       <c r="A128" s="1">
         <v>53</v>
       </c>
-      <c r="B128" s="3" t="s">
+      <c r="B128" s="2" t="s">
         <v>1</v>
       </c>
     </row>
@@ -1481,7 +1448,7 @@
       <c r="A129" s="1">
         <v>70</v>
       </c>
-      <c r="B129" s="3" t="s">
+      <c r="B129" s="2" t="s">
         <v>0</v>
       </c>
     </row>
@@ -1489,7 +1456,7 @@
       <c r="A130" s="1">
         <v>94</v>
       </c>
-      <c r="B130" s="3" t="s">
+      <c r="B130" s="2" t="s">
         <v>2</v>
       </c>
     </row>
@@ -1497,7 +1464,7 @@
       <c r="A131" s="1">
         <v>88</v>
       </c>
-      <c r="B131" s="3" t="s">
+      <c r="B131" s="2" t="s">
         <v>2</v>
       </c>
     </row>
@@ -1505,7 +1472,7 @@
       <c r="A132" s="1">
         <v>70</v>
       </c>
-      <c r="B132" s="3" t="s">
+      <c r="B132" s="2" t="s">
         <v>1</v>
       </c>
     </row>
@@ -1513,7 +1480,7 @@
       <c r="A133" s="1">
         <v>88</v>
       </c>
-      <c r="B133" s="3" t="s">
+      <c r="B133" s="2" t="s">
         <v>2</v>
       </c>
     </row>
@@ -1521,7 +1488,7 @@
       <c r="A134" s="1">
         <v>67</v>
       </c>
-      <c r="B134" s="3" t="s">
+      <c r="B134" s="2" t="s">
         <v>1</v>
       </c>
     </row>
@@ -1529,7 +1496,7 @@
       <c r="A135" s="1">
         <v>80</v>
       </c>
-      <c r="B135" s="3" t="s">
+      <c r="B135" s="2" t="s">
         <v>1</v>
       </c>
     </row>
@@ -1537,7 +1504,7 @@
       <c r="A136" s="1">
         <v>70</v>
       </c>
-      <c r="B136" s="3" t="s">
+      <c r="B136" s="2" t="s">
         <v>1</v>
       </c>
     </row>
@@ -1545,7 +1512,7 @@
       <c r="A137" s="1">
         <v>81</v>
       </c>
-      <c r="B137" s="3" t="s">
+      <c r="B137" s="2" t="s">
         <v>2</v>
       </c>
     </row>
@@ -1553,7 +1520,7 @@
       <c r="A138" s="1">
         <v>67</v>
       </c>
-      <c r="B138" s="3" t="s">
+      <c r="B138" s="2" t="s">
         <v>0</v>
       </c>
     </row>
@@ -1561,7 +1528,7 @@
       <c r="A139" s="1">
         <v>77</v>
       </c>
-      <c r="B139" s="3" t="s">
+      <c r="B139" s="2" t="s">
         <v>0</v>
       </c>
     </row>
@@ -1569,7 +1536,7 @@
       <c r="A140" s="1">
         <v>94</v>
       </c>
-      <c r="B140" s="3" t="s">
+      <c r="B140" s="2" t="s">
         <v>2</v>
       </c>
     </row>
@@ -1577,7 +1544,7 @@
       <c r="A141" s="1">
         <v>90</v>
       </c>
-      <c r="B141" s="3" t="s">
+      <c r="B141" s="2" t="s">
         <v>2</v>
       </c>
     </row>
@@ -1585,7 +1552,7 @@
       <c r="A142" s="1">
         <v>85</v>
       </c>
-      <c r="B142" s="3" t="s">
+      <c r="B142" s="2" t="s">
         <v>2</v>
       </c>
     </row>
@@ -1593,7 +1560,7 @@
       <c r="A143" s="1">
         <v>87</v>
       </c>
-      <c r="B143" s="3" t="s">
+      <c r="B143" s="2" t="s">
         <v>2</v>
       </c>
     </row>
@@ -1601,7 +1568,7 @@
       <c r="A144" s="1">
         <v>90</v>
       </c>
-      <c r="B144" s="3" t="s">
+      <c r="B144" s="2" t="s">
         <v>2</v>
       </c>
     </row>
@@ -1609,7 +1576,7 @@
       <c r="A145" s="1">
         <v>84</v>
       </c>
-      <c r="B145" s="3" t="s">
+      <c r="B145" s="2" t="s">
         <v>1</v>
       </c>
     </row>
@@ -1617,7 +1584,7 @@
       <c r="A146" s="1">
         <v>68</v>
       </c>
-      <c r="B146" s="3" t="s">
+      <c r="B146" s="2" t="s">
         <v>0</v>
       </c>
     </row>
@@ -1625,7 +1592,7 @@
       <c r="A147" s="1">
         <v>73</v>
       </c>
-      <c r="B147" s="3" t="s">
+      <c r="B147" s="2" t="s">
         <v>0</v>
       </c>
     </row>
@@ -1633,7 +1600,7 @@
       <c r="A148" s="1">
         <v>75</v>
       </c>
-      <c r="B148" s="3" t="s">
+      <c r="B148" s="2" t="s">
         <v>1</v>
       </c>
     </row>
@@ -1641,7 +1608,7 @@
       <c r="A149" s="1">
         <v>65</v>
       </c>
-      <c r="B149" s="3" t="s">
+      <c r="B149" s="2" t="s">
         <v>0</v>
       </c>
       <c r="D149" s="1"/>
@@ -1808,7 +1775,7 @@
       <c r="A150" s="1">
         <v>66</v>
       </c>
-      <c r="B150" s="3" t="s">
+      <c r="B150" s="2" t="s">
         <v>0</v>
       </c>
     </row>
@@ -1816,7 +1783,7 @@
       <c r="A151" s="1">
         <v>76</v>
       </c>
-      <c r="B151" s="3" t="s">
+      <c r="B151" s="2" t="s">
         <v>2</v>
       </c>
     </row>
@@ -1824,7 +1791,7 @@
       <c r="A152" s="1">
         <v>70</v>
       </c>
-      <c r="B152" s="3" t="s">
+      <c r="B152" s="2" t="s">
         <v>1</v>
       </c>
     </row>
@@ -1832,7 +1799,7 @@
       <c r="A153" s="1">
         <v>88</v>
       </c>
-      <c r="B153" s="3" t="s">
+      <c r="B153" s="2" t="s">
         <v>2</v>
       </c>
     </row>
@@ -1840,7 +1807,7 @@
       <c r="A154" s="1">
         <v>60</v>
       </c>
-      <c r="B154" s="3" t="s">
+      <c r="B154" s="2" t="s">
         <v>0</v>
       </c>
     </row>
@@ -1848,7 +1815,7 @@
       <c r="A155" s="1">
         <v>72</v>
       </c>
-      <c r="B155" s="3" t="s">
+      <c r="B155" s="2" t="s">
         <v>0</v>
       </c>
     </row>
@@ -1856,7 +1823,7 @@
       <c r="A156" s="1">
         <v>113</v>
       </c>
-      <c r="B156" s="3" t="s">
+      <c r="B156" s="2" t="s">
         <v>1</v>
       </c>
     </row>
@@ -1864,7 +1831,7 @@
       <c r="A157" s="1">
         <v>70</v>
       </c>
-      <c r="B157" s="3" t="s">
+      <c r="B157" s="2" t="s">
         <v>0</v>
       </c>
     </row>
@@ -1872,7 +1839,7 @@
       <c r="A158" s="1">
         <v>64</v>
       </c>
-      <c r="B158" s="3" t="s">
+      <c r="B158" s="2" t="s">
         <v>0</v>
       </c>
     </row>
@@ -1880,7 +1847,7 @@
       <c r="A159" s="1">
         <v>89</v>
       </c>
-      <c r="B159" s="3" t="s">
+      <c r="B159" s="2" t="s">
         <v>2</v>
       </c>
     </row>
@@ -1888,131 +1855,8 @@
       <c r="A160" s="1">
         <v>80</v>
       </c>
-      <c r="B160" s="3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9449434A-BA27-4B6F-9EEB-4F6AACDDA4E1}">
-  <dimension ref="D8:H16"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D8" sqref="D8:H16"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData>
-    <row r="8" spans="4:8" x14ac:dyDescent="0.3">
-      <c r="G8" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9" spans="4:8" x14ac:dyDescent="0.3">
-      <c r="F9">
-        <v>1</v>
-      </c>
-      <c r="G9">
-        <v>2</v>
-      </c>
-      <c r="H9">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="4:8" x14ac:dyDescent="0.3">
-      <c r="F10">
-        <v>110</v>
-      </c>
-      <c r="G10">
-        <v>140</v>
-      </c>
-      <c r="H10">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="11" spans="4:8" x14ac:dyDescent="0.3">
-      <c r="D11">
-        <v>1</v>
-      </c>
-      <c r="E11">
-        <v>1</v>
-      </c>
-      <c r="F11" s="5">
-        <v>22</v>
-      </c>
-      <c r="G11" s="5">
-        <v>35</v>
-      </c>
-      <c r="H11" s="5">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="12" spans="4:8" x14ac:dyDescent="0.3">
-      <c r="F12" s="5">
-        <v>22</v>
-      </c>
-      <c r="G12" s="5">
-        <v>37</v>
-      </c>
-      <c r="H12" s="5">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="13" spans="4:8" x14ac:dyDescent="0.3">
-      <c r="D13" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="F13" s="5">
-        <v>21</v>
-      </c>
-      <c r="G13" s="5">
-        <v>39</v>
-      </c>
-      <c r="H13" s="5">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="14" spans="4:8" x14ac:dyDescent="0.3">
-      <c r="D14">
-        <v>2</v>
-      </c>
-      <c r="E14">
-        <v>3</v>
-      </c>
-      <c r="F14" s="5">
-        <v>27</v>
-      </c>
-      <c r="G14" s="5">
-        <v>47</v>
-      </c>
-      <c r="H14" s="5">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="15" spans="4:8" x14ac:dyDescent="0.3">
-      <c r="F15" s="5">
-        <v>25</v>
-      </c>
-      <c r="G15" s="5">
-        <v>44</v>
-      </c>
-      <c r="H15" s="5">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="16" spans="4:8" x14ac:dyDescent="0.3">
-      <c r="F16" s="5">
-        <v>24</v>
-      </c>
-      <c r="G16" s="4">
-        <v>42</v>
-      </c>
-      <c r="H16" s="5">
-        <v>58</v>
+      <c r="B160" s="2" t="s">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
